--- a/biology/Médecine/Gordon_Morgan_Holmes/Gordon_Morgan_Holmes.xlsx
+++ b/biology/Médecine/Gordon_Morgan_Holmes/Gordon_Morgan_Holmes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gordon Morgan Holmes, né le 22 février 1876 à Castlebellingham[1], près de Dublin et mort le 29 décembre 1965 à Farnham (Surrey), est un neurologue britannique. Il est connu pour ses travaux fondateurs sur les troubles du cervelet[2] et du cortex visuel[1],[3],[4],[5],[6].
-Il s'intéressa aussi à l'hypotonie congénitale avec James Stanfield Collier (1870-1935)[7] et décrivit la guérison d'un virilisme consécutive à la première ablation d'une tumeur surrénale par le chirurgien Percy Sargent. Il fut longtemps rédacteur en chef de la revue Brain et était apprécié des jeunes neurologues qu'il aidait à avancer et améliorer leurs manuscrits.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gordon Morgan Holmes, né le 22 février 1876 à Castlebellingham, près de Dublin et mort le 29 décembre 1965 à Farnham (Surrey), est un neurologue britannique. Il est connu pour ses travaux fondateurs sur les troubles du cervelet et du cortex visuel.
+Il s'intéressa aussi à l'hypotonie congénitale avec James Stanfield Collier (1870-1935) et décrivit la guérison d'un virilisme consécutive à la première ablation d'une tumeur surrénale par le chirurgien Percy Sargent. Il fut longtemps rédacteur en chef de la revue Brain et était apprécié des jeunes neurologues qu'il aidait à avancer et améliorer leurs manuscrits.
 </t>
         </is>
       </c>
